--- a/data/indData.xlsx
+++ b/data/indData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Documents\Github\IBECA\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Documents\Github\IBECA_NINA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2858CB8C-E787-4602-9C0A-F8672F6D99B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05DE70D-A405-4F34-A921-0A3857D61147}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{FD9B3877-2BEE-49F1-96DB-153B721258FA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{FD9B3877-2BEE-49F1-96DB-153B721258FA}"/>
   </bookViews>
   <sheets>
     <sheet name="tilstandsindikatorer" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="89">
   <si>
     <t>node</t>
   </si>
@@ -296,6 +296,15 @@
   </si>
   <si>
     <t>Ikke-biologiske forhold som er viktige for økosystemets funksjon.</t>
+  </si>
+  <si>
+    <t>tilstandsindikator</t>
+  </si>
+  <si>
+    <t>supplerende</t>
+  </si>
+  <si>
+    <t>Spurvefugler i fjellet</t>
   </si>
 </sst>
 </file>
@@ -485,7 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -524,12 +533,57 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -1080,19 +1134,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FB8531-B63A-426C-9960-07BA03ABBCBC}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="31.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="70.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="6" max="6" width="70.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>63</v>
       </c>
@@ -1103,13 +1157,16 @@
         <v>68</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1119,12 +1176,15 @@
       <c r="C2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="1">
         <v>12</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1134,12 +1194,15 @@
       <c r="C3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="1">
         <v>4</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1149,12 +1212,15 @@
       <c r="C4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="1">
         <v>13</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1164,12 +1230,15 @@
       <c r="C5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="1">
         <v>15</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1179,12 +1248,15 @@
       <c r="C6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="1">
         <v>11</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1194,12 +1266,15 @@
       <c r="C7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="1">
         <v>6</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1209,12 +1284,15 @@
       <c r="C8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="1">
         <v>4</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1224,12 +1302,15 @@
       <c r="C9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="1">
         <v>4</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1239,12 +1320,15 @@
       <c r="C10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1254,14 +1338,17 @@
       <c r="C11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="1">
         <v>3</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1271,14 +1358,17 @@
       <c r="C12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="1">
         <v>3</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1288,14 +1378,17 @@
       <c r="C13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="1">
         <v>3</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1305,12 +1398,15 @@
       <c r="C14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="1">
         <v>3</v>
       </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1320,12 +1416,15 @@
       <c r="C15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="1">
         <v>3</v>
       </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1335,12 +1434,15 @@
       <c r="C16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="1">
         <v>10</v>
       </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1350,12 +1452,15 @@
       <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="1">
         <v>5</v>
       </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1365,12 +1470,15 @@
       <c r="C18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="1">
         <v>7</v>
       </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1380,14 +1488,17 @@
       <c r="C19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="1">
         <v>8</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1397,25 +1508,44 @@
       <c r="C20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="1">
         <v>8</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>57</v>
       </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="22">
+        <v>20</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C20">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1428,18 +1558,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4095CA0B-49B0-4DE4-825E-901BCBAC2241}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B10:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="122.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7265625" customWidth="1"/>
+    <col min="3" max="3" width="122.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>63</v>
       </c>
@@ -1453,7 +1583,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="4" t="s">
         <v>20</v>
@@ -1463,7 +1593,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="4" t="s">
         <v>21</v>
@@ -1473,7 +1603,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
         <v>22</v>
@@ -1483,7 +1613,7 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
@@ -1493,7 +1623,7 @@
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
         <v>24</v>
@@ -1516,13 +1646,13 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="39.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="2" max="3" width="39.81640625" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
@@ -1539,7 +1669,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1554,7 +1684,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1569,7 +1699,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1584,7 +1714,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1599,7 +1729,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1614,7 +1744,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1629,7 +1759,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1644,7 +1774,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
     </row>
   </sheetData>
@@ -1657,17 +1787,17 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>58</v>
       </c>
@@ -1681,7 +1811,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1691,7 +1821,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1701,7 +1831,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1711,7 +1841,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1721,7 +1851,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1731,7 +1861,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1741,7 +1871,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1753,7 +1883,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1763,7 +1893,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1773,7 +1903,7 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1783,7 +1913,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1793,7 +1923,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1803,7 +1933,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1815,7 +1945,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1827,7 +1957,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1847,20 +1977,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C601D3-9EDB-4E4F-80BC-043342852ACA}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="41.453125" customWidth="1"/>
+    <col min="3" max="3" width="41.1796875" customWidth="1"/>
+    <col min="4" max="4" width="33.54296875" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>63</v>
       </c>
@@ -1883,7 +2013,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1900,7 +2030,7 @@
       </c>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1917,7 +2047,7 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1934,7 +2064,7 @@
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1951,7 +2081,7 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1968,7 +2098,7 @@
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1985,7 +2115,7 @@
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2002,7 +2132,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2019,7 +2149,7 @@
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2036,7 +2166,7 @@
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2053,7 +2183,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2070,7 +2200,7 @@
       </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2087,7 +2217,7 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2104,7 +2234,7 @@
       </c>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2121,7 +2251,7 @@
       </c>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2138,7 +2268,7 @@
       </c>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2155,7 +2285,7 @@
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2172,7 +2302,7 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2189,7 +2319,7 @@
       </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2206,7 +2336,7 @@
       </c>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2223,7 +2353,7 @@
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2240,7 +2370,7 @@
       </c>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2257,7 +2387,7 @@
       </c>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2274,7 +2404,7 @@
       </c>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2291,7 +2421,7 @@
       </c>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2308,7 +2438,7 @@
       </c>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2325,7 +2455,7 @@
       </c>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2342,7 +2472,7 @@
       </c>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2359,7 +2489,7 @@
       </c>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2376,7 +2506,7 @@
       </c>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2393,7 +2523,7 @@
       </c>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2410,7 +2540,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2427,7 +2557,7 @@
       </c>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2444,7 +2574,7 @@
       </c>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2461,7 +2591,7 @@
       </c>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2478,7 +2608,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2495,7 +2625,7 @@
       </c>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2512,7 +2642,7 @@
       </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2529,7 +2659,7 @@
       </c>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2546,7 +2676,7 @@
       </c>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2563,7 +2693,7 @@
       </c>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2580,7 +2710,7 @@
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2597,7 +2727,7 @@
       </c>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2614,7 +2744,7 @@
       </c>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2631,7 +2761,7 @@
       </c>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2648,7 +2778,7 @@
       </c>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2665,7 +2795,7 @@
       </c>
       <c r="G47" s="5"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2682,7 +2812,7 @@
       </c>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -2699,7 +2829,7 @@
       </c>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -2716,7 +2846,7 @@
       </c>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -2733,7 +2863,7 @@
       </c>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -2750,7 +2880,7 @@
       </c>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -2767,7 +2897,7 @@
       </c>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -2784,7 +2914,7 @@
       </c>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -2801,7 +2931,7 @@
       </c>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -2818,7 +2948,7 @@
       </c>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -2835,7 +2965,7 @@
       </c>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -2852,7 +2982,7 @@
       </c>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -2869,7 +2999,7 @@
       </c>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -2886,7 +3016,7 @@
       </c>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -2903,7 +3033,7 @@
       </c>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -2920,7 +3050,7 @@
       </c>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -2937,7 +3067,7 @@
       </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -2954,7 +3084,7 @@
       </c>
       <c r="G64" s="5"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -2971,7 +3101,7 @@
       </c>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -2988,7 +3118,7 @@
       </c>
       <c r="G66" s="5"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -3005,7 +3135,7 @@
       </c>
       <c r="G67" s="5"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -3022,7 +3152,7 @@
       </c>
       <c r="G68" s="5"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -3039,7 +3169,7 @@
       </c>
       <c r="G69" s="5"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -3056,7 +3186,7 @@
       </c>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -3075,72 +3205,72 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B61:B69 B2:B20">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:D41">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:B60">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/indData.xlsx
+++ b/data/indData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Documents\Github\IBECA_NINA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05DE70D-A405-4F34-A921-0A3857D61147}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03035784-AE22-4781-8D03-0456C827D4C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{FD9B3877-2BEE-49F1-96DB-153B721258FA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{FD9B3877-2BEE-49F1-96DB-153B721258FA}"/>
   </bookViews>
   <sheets>
     <sheet name="tilstandsindikatorer" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="90">
   <si>
     <t>node</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>Spurvefugler i fjellet</t>
+  </si>
+  <si>
+    <t>Ellenberg N</t>
   </si>
 </sst>
 </file>
@@ -1136,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FB8531-B63A-426C-9960-07BA03ABBCBC}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1333,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>37</v>
@@ -1558,7 +1561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4095CA0B-49B0-4DE4-825E-901BCBAC2241}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1643,7 +1646,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/indData.xlsx
+++ b/data/indData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Documents\Github\IBECA_NINA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03035784-AE22-4781-8D03-0456C827D4C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3799F9D-C364-4392-90C5-5FBA609AFF68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{FD9B3877-2BEE-49F1-96DB-153B721258FA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{FD9B3877-2BEE-49F1-96DB-153B721258FA}"/>
   </bookViews>
   <sheets>
     <sheet name="tilstandsindikatorer" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="89">
   <si>
     <t>node</t>
   </si>
@@ -70,12 +70,6 @@
     <t>NI for fjell</t>
   </si>
   <si>
-    <t>Ellenberg N</t>
-  </si>
-  <si>
-    <t>Ellenberg L</t>
-  </si>
-  <si>
     <t>Dahls R</t>
   </si>
   <si>
@@ -308,6 +302,9 @@
   </si>
   <si>
     <t>Ellenberg N</t>
+  </si>
+  <si>
+    <t>Ellenberg L</t>
   </si>
 </sst>
 </file>
@@ -546,47 +543,7 @@
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <color theme="1"/>
@@ -1139,7 +1096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FB8531-B63A-426C-9960-07BA03ABBCBC}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1151,22 +1108,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1177,10 +1134,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2" s="1">
         <v>12</v>
@@ -1195,10 +1152,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
@@ -1213,10 +1170,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E4" s="1">
         <v>13</v>
@@ -1231,10 +1188,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E5" s="1">
         <v>15</v>
@@ -1249,10 +1206,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E6" s="1">
         <v>11</v>
@@ -1267,10 +1224,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
@@ -1285,10 +1242,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
@@ -1303,10 +1260,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
@@ -1321,10 +1278,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
@@ -1336,19 +1293,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1356,19 +1313,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1376,19 +1333,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E13" s="1">
         <v>3</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1396,13 +1353,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E14" s="1">
         <v>3</v>
@@ -1414,13 +1371,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E15" s="1">
         <v>3</v>
@@ -1432,13 +1389,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E16" s="1">
         <v>10</v>
@@ -1450,13 +1407,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
@@ -1468,13 +1425,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E18" s="1">
         <v>7</v>
@@ -1486,19 +1443,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E19" s="1">
         <v>8</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1506,19 +1463,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E20" s="1">
         <v>8</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1526,29 +1483,29 @@
         <v>20</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C20">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1574,65 +1531,65 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -1657,19 +1614,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1677,13 +1634,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -1692,13 +1649,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -1707,13 +1664,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -1722,13 +1679,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -1737,13 +1694,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -1752,13 +1709,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -1767,13 +1724,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -1802,16 +1759,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1819,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1829,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1839,7 +1796,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1849,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1859,7 +1816,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1869,7 +1826,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1879,10 +1836,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -1891,7 +1848,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1901,7 +1858,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1911,7 +1868,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1921,7 +1878,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1931,7 +1888,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1941,11 +1898,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1953,11 +1910,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1965,7 +1922,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1980,8 +1937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C601D3-9EDB-4E4F-80BC-043342852ACA}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1995,25 +1952,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -2021,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -2029,7 +1986,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G2" s="5"/>
     </row>
@@ -2038,7 +1995,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -2046,7 +2003,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -2055,7 +2012,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -2063,7 +2020,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -2072,7 +2029,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -2080,7 +2037,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -2089,7 +2046,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -2097,7 +2054,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6" s="5"/>
     </row>
@@ -2106,7 +2063,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -2114,7 +2071,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G7" s="5"/>
     </row>
@@ -2123,7 +2080,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -2131,7 +2088,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G8" s="5"/>
     </row>
@@ -2140,7 +2097,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -2148,7 +2105,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G9" s="5"/>
     </row>
@@ -2157,7 +2114,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -2165,7 +2122,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G10" s="5"/>
     </row>
@@ -2174,15 +2131,15 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G11" s="5"/>
     </row>
@@ -2191,15 +2148,15 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G12" s="5"/>
     </row>
@@ -2208,15 +2165,15 @@
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G13" s="5"/>
     </row>
@@ -2225,15 +2182,15 @@
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G14" s="5"/>
     </row>
@@ -2242,15 +2199,15 @@
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G15" s="5"/>
     </row>
@@ -2259,15 +2216,15 @@
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G16" s="5"/>
     </row>
@@ -2276,15 +2233,15 @@
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -2293,15 +2250,15 @@
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -2310,15 +2267,15 @@
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -2327,15 +2284,15 @@
         <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -2347,12 +2304,12 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="5"/>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -2364,12 +2321,12 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="5"/>
       <c r="F22" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -2381,12 +2338,12 @@
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="5"/>
       <c r="F23" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -2398,12 +2355,12 @@
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="5"/>
       <c r="F24" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -2415,12 +2372,12 @@
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="5"/>
       <c r="F25" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -2432,12 +2389,12 @@
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="5"/>
       <c r="F26" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -2449,12 +2406,12 @@
         <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="5"/>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -2466,12 +2423,12 @@
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="5"/>
       <c r="F28" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -2483,12 +2440,12 @@
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="5"/>
       <c r="F29" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G29" s="5"/>
     </row>
@@ -2500,12 +2457,12 @@
         <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="5"/>
       <c r="F30" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G30" s="5"/>
     </row>
@@ -2517,12 +2474,12 @@
         <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="5"/>
       <c r="F31" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" s="5"/>
     </row>
@@ -2531,15 +2488,15 @@
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="5"/>
       <c r="F32" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G32" s="5"/>
     </row>
@@ -2548,15 +2505,15 @@
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="5"/>
       <c r="F33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G33" s="5"/>
     </row>
@@ -2565,15 +2522,15 @@
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="5"/>
       <c r="F34" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G34" s="5"/>
     </row>
@@ -2582,15 +2539,15 @@
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="5"/>
       <c r="F35" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G35" s="5"/>
     </row>
@@ -2599,15 +2556,15 @@
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="5"/>
       <c r="F36" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G36" s="5"/>
     </row>
@@ -2616,15 +2573,15 @@
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="5"/>
       <c r="F37" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G37" s="5"/>
     </row>
@@ -2633,15 +2590,15 @@
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="5"/>
       <c r="F38" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G38" s="5"/>
     </row>
@@ -2650,15 +2607,15 @@
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="5"/>
       <c r="F39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G39" s="5"/>
     </row>
@@ -2667,15 +2624,15 @@
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="5"/>
       <c r="F40" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G40" s="5"/>
     </row>
@@ -2684,15 +2641,15 @@
         <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="5"/>
       <c r="F41" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G41" s="5"/>
     </row>
@@ -2701,7 +2658,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>1</v>
@@ -2709,7 +2666,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="5"/>
       <c r="F42" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G42" s="5"/>
     </row>
@@ -2718,7 +2675,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
@@ -2726,7 +2683,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="5"/>
       <c r="F43" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G43" s="5"/>
     </row>
@@ -2735,7 +2692,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
@@ -2743,7 +2700,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="5"/>
       <c r="F44" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G44" s="5"/>
     </row>
@@ -2752,7 +2709,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -2760,7 +2717,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="5"/>
       <c r="F45" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G45" s="5"/>
     </row>
@@ -2769,7 +2726,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>5</v>
@@ -2777,7 +2734,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="5"/>
       <c r="F46" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G46" s="5"/>
     </row>
@@ -2786,7 +2743,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>6</v>
@@ -2794,7 +2751,7 @@
       <c r="D47" s="1"/>
       <c r="E47" s="5"/>
       <c r="F47" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G47" s="5"/>
     </row>
@@ -2803,7 +2760,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>7</v>
@@ -2811,7 +2768,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="5"/>
       <c r="F48" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G48" s="5"/>
     </row>
@@ -2820,7 +2777,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
@@ -2828,7 +2785,7 @@
       <c r="D49" s="1"/>
       <c r="E49" s="5"/>
       <c r="F49" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G49" s="5"/>
     </row>
@@ -2837,7 +2794,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>9</v>
@@ -2845,7 +2802,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="5"/>
       <c r="F50" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G50" s="5"/>
     </row>
@@ -2854,15 +2811,15 @@
         <v>50</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="5"/>
       <c r="F51" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G51" s="5"/>
     </row>
@@ -2871,15 +2828,15 @@
         <v>51</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="5"/>
       <c r="F52" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G52" s="5"/>
     </row>
@@ -2888,15 +2845,15 @@
         <v>52</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="5"/>
       <c r="F53" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G53" s="5"/>
     </row>
@@ -2905,15 +2862,15 @@
         <v>53</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="5"/>
       <c r="F54" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G54" s="5"/>
     </row>
@@ -2922,15 +2879,15 @@
         <v>54</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="5"/>
       <c r="F55" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G55" s="5"/>
     </row>
@@ -2939,15 +2896,15 @@
         <v>55</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="5"/>
       <c r="F56" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G56" s="5"/>
     </row>
@@ -2956,15 +2913,15 @@
         <v>56</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="5"/>
       <c r="F57" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G57" s="5"/>
     </row>
@@ -2973,15 +2930,15 @@
         <v>57</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="5"/>
       <c r="F58" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G58" s="5"/>
     </row>
@@ -2990,15 +2947,15 @@
         <v>58</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="5"/>
       <c r="F59" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G59" s="5"/>
     </row>
@@ -3007,15 +2964,15 @@
         <v>59</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="5"/>
       <c r="F60" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G60" s="5"/>
     </row>
@@ -3024,7 +2981,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>1</v>
@@ -3032,7 +2989,7 @@
       <c r="D61" s="1"/>
       <c r="E61" s="5"/>
       <c r="F61" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G61" s="5"/>
     </row>
@@ -3041,7 +2998,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
@@ -3049,7 +3006,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="5"/>
       <c r="F62" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G62" s="5"/>
     </row>
@@ -3058,7 +3015,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>3</v>
@@ -3066,7 +3023,7 @@
       <c r="D63" s="1"/>
       <c r="E63" s="5"/>
       <c r="F63" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G63" s="5"/>
     </row>
@@ -3075,7 +3032,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>5</v>
@@ -3083,7 +3040,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="5"/>
       <c r="F64" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G64" s="5"/>
     </row>
@@ -3092,7 +3049,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>6</v>
@@ -3100,7 +3057,7 @@
       <c r="D65" s="1"/>
       <c r="E65" s="5"/>
       <c r="F65" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G65" s="5"/>
     </row>
@@ -3109,7 +3066,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>7</v>
@@ -3117,7 +3074,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="5"/>
       <c r="F66" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G66" s="5"/>
     </row>
@@ -3126,7 +3083,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>9</v>
@@ -3134,7 +3091,7 @@
       <c r="D67" s="1"/>
       <c r="E67" s="5"/>
       <c r="F67" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G67" s="5"/>
     </row>
@@ -3143,15 +3100,15 @@
         <v>67</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="5"/>
       <c r="F68" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G68" s="5"/>
     </row>
@@ -3160,15 +3117,15 @@
         <v>68</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="5"/>
       <c r="F69" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G69" s="5"/>
     </row>
@@ -3177,7 +3134,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>9</v>
@@ -3185,7 +3142,7 @@
       <c r="D70" s="1"/>
       <c r="E70" s="5"/>
       <c r="F70" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G70" s="5"/>
     </row>
@@ -3194,7 +3151,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>9</v>
@@ -3202,78 +3159,78 @@
       <c r="D71" s="1"/>
       <c r="E71" s="5"/>
       <c r="F71" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G71" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B61:B69 B2:B20">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:D41">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:B60">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/indData.xlsx
+++ b/data/indData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Documents\Github\IBECA_NINA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3799F9D-C364-4392-90C5-5FBA609AFF68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308DDAE5-E41A-4C69-BFB7-AD030B23694F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{FD9B3877-2BEE-49F1-96DB-153B721258FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{FD9B3877-2BEE-49F1-96DB-153B721258FA}"/>
   </bookViews>
   <sheets>
     <sheet name="tilstandsindikatorer" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="datasett" sheetId="4" r:id="rId4"/>
     <sheet name="relasjoner" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">relasjoner!$A$1:$G$88</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,29 +41,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="93">
   <si>
     <t>node</t>
   </si>
   <si>
-    <t>Bestandsnivå fjellrev</t>
-  </si>
-  <si>
-    <t>Bestandsnivå jerv</t>
-  </si>
-  <si>
-    <t>Bestandsnivå villrein</t>
-  </si>
-  <si>
     <t>Smågnagere</t>
   </si>
   <si>
-    <t>Bestandsnivå lirype</t>
-  </si>
-  <si>
-    <t>Bestandsnivå fjellrype</t>
-  </si>
-  <si>
     <t>Kongeørn</t>
   </si>
   <si>
@@ -82,9 +70,6 @@
     <t>NDVI</t>
   </si>
   <si>
-    <t>Areal uten tekniske inngrep</t>
-  </si>
-  <si>
     <t>Areal av isbreer</t>
   </si>
   <si>
@@ -305,6 +290,36 @@
   </si>
   <si>
     <t>Ellenberg L</t>
+  </si>
+  <si>
+    <t>Fjellrev</t>
+  </si>
+  <si>
+    <t>Jerv</t>
+  </si>
+  <si>
+    <t>Rein</t>
+  </si>
+  <si>
+    <t>Vinterregn</t>
+  </si>
+  <si>
+    <t>Lirype</t>
+  </si>
+  <si>
+    <t>Fjellrype</t>
+  </si>
+  <si>
+    <t>Inngrepsfri natur</t>
+  </si>
+  <si>
+    <t>Fragmentering</t>
+  </si>
+  <si>
+    <t>AR50</t>
+  </si>
+  <si>
+    <t>Metereologisk Institutt</t>
   </si>
 </sst>
 </file>
@@ -353,7 +368,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,12 +378,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -503,9 +512,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -524,9 +533,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -538,12 +544,775 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="100">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -1094,418 +1863,456 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FB8531-B63A-426C-9960-07BA03ABBCBC}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="31.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="70.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1">
         <v>12</v>
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E4" s="1">
         <v>13</v>
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E5" s="1">
         <v>15</v>
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E6" s="1">
         <v>11</v>
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E13" s="1">
         <v>3</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E14" s="1">
         <v>3</v>
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1">
         <v>3</v>
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E16" s="1">
         <v>10</v>
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E18" s="1">
         <v>7</v>
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E19" s="1">
         <v>8</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E20" s="1">
         <v>8</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="22">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
         <v>20</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="24">
+        <v>2</v>
+      </c>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
+        <v>21</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="24">
+        <v>16</v>
+      </c>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
+        <v>22</v>
+      </c>
+      <c r="B23" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="24">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C20">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="1" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="2" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="3" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="4" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1522,74 +2329,74 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.7265625" customWidth="1"/>
-    <col min="3" max="3" width="122.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.7265625" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="122.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -1606,135 +2413,135 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="39.81640625" customWidth="1"/>
-    <col min="4" max="4" width="27.81640625" customWidth="1"/>
+    <col min="2" max="3" width="39.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
     </row>
   </sheetData>
@@ -1744,188 +2551,198 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D600F01F-B07B-4849-AD68-C03A4F6DB65F}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>33</v>
+      <c r="B2" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>34</v>
+      <c r="B3" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>35</v>
+      <c r="B4" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>36</v>
+      <c r="B5" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>37</v>
+      <c r="B6" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>38</v>
+      <c r="B7" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>39</v>
+      <c r="B8" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>41</v>
+      <c r="B9" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>42</v>
+      <c r="B10" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>43</v>
+      <c r="B11" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>44</v>
+      <c r="B12" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>45</v>
+      <c r="B13" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>46</v>
+      <c r="B14" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>48</v>
+      <c r="B15" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>50</v>
+      <c r="B16" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1935,645 +2752,645 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C601D3-9EDB-4E4F-80BC-043342852ACA}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.453125" customWidth="1"/>
-    <col min="3" max="3" width="41.1796875" customWidth="1"/>
-    <col min="4" max="4" width="33.54296875" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="5"/>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="5"/>
       <c r="F22" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="5"/>
       <c r="F23" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="5"/>
       <c r="F24" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="5"/>
       <c r="F25" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="5"/>
       <c r="F26" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="5"/>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="5"/>
       <c r="F28" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="5"/>
       <c r="F29" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="5"/>
       <c r="F30" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="5"/>
       <c r="F31" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="5"/>
       <c r="F32" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="5"/>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="5"/>
       <c r="F34" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="5"/>
       <c r="F35" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="5"/>
       <c r="F36" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>23</v>
@@ -2581,84 +3398,84 @@
       <c r="D37" s="1"/>
       <c r="E37" s="5"/>
       <c r="F37" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="5"/>
       <c r="F38" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="15" t="s">
-        <v>15</v>
+      <c r="B39" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="7" t="s">
-        <v>60</v>
+      <c r="F39" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="15" t="s">
-        <v>16</v>
+      <c r="B40" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="7" t="s">
-        <v>60</v>
+      <c r="F40" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="15" t="s">
-        <v>17</v>
+      <c r="B41" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="7" t="s">
-        <v>60</v>
+      <c r="F41" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>1</v>
@@ -2666,407 +3483,407 @@
       <c r="D42" s="1"/>
       <c r="E42" s="5"/>
       <c r="F42" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="5"/>
       <c r="F43" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="5"/>
       <c r="F44" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="5"/>
       <c r="F45" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="5"/>
       <c r="F46" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="5"/>
       <c r="F47" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G47" s="5"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="5"/>
       <c r="F48" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="5"/>
       <c r="F49" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="5"/>
       <c r="F50" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>50</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="5"/>
       <c r="F51" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="5"/>
       <c r="F52" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>52</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="5"/>
       <c r="F53" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>53</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="5"/>
       <c r="F54" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>54</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="5"/>
       <c r="F55" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>55</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="5"/>
       <c r="F56" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>56</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="5"/>
       <c r="F57" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>57</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="5"/>
       <c r="F58" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>58</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="5"/>
       <c r="F59" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>59</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="5"/>
       <c r="F60" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="17" t="s">
-        <v>19</v>
+      <c r="B61" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="5"/>
       <c r="F61" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="17" t="s">
-        <v>22</v>
+      <c r="B62" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="5"/>
       <c r="F62" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="17" t="s">
-        <v>21</v>
+      <c r="B63" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="5"/>
       <c r="F63" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="17" t="s">
-        <v>19</v>
+      <c r="B64" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="5"/>
       <c r="F64" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G64" s="5"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="17" t="s">
-        <v>19</v>
+      <c r="B65" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="5"/>
       <c r="F65" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="17" t="s">
-        <v>22</v>
+      <c r="B66" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>7</v>
@@ -3074,163 +3891,719 @@
       <c r="D66" s="1"/>
       <c r="E66" s="5"/>
       <c r="F66" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G66" s="5"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="17" t="s">
-        <v>22</v>
+      <c r="B67" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="5"/>
       <c r="F67" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G67" s="5"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="17" t="s">
-        <v>22</v>
+      <c r="B68" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="5"/>
       <c r="F68" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G68" s="5"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="17" t="s">
-        <v>22</v>
+      <c r="B69" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="5"/>
       <c r="F69" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G69" s="5"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>69</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="5"/>
       <c r="F70" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>70</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="5"/>
       <c r="F71" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G71" s="5"/>
     </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>71</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>72</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>73</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>74</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>76</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <v>77</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>78</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>79</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>80</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>81</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>82</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
+        <v>83</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
+        <v>84</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
+        <v>85</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
+        <v>87</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G88" s="5"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B61:B69 B2:B20">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+  <autoFilter ref="A1:G88" xr:uid="{03A63584-9279-48FC-B801-EBDFD85054A5}"/>
+  <conditionalFormatting sqref="B58:B66 B2:B20 C21:D38">
+    <cfRule type="cellIs" dxfId="95" priority="133" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="134" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="135" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="136" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:D41">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+  <conditionalFormatting sqref="B39:B57">
+    <cfRule type="cellIs" dxfId="91" priority="125" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="126" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="127" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="128" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42:B60">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+  <conditionalFormatting sqref="B67">
+    <cfRule type="cellIs" dxfId="87" priority="117" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="118" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="119" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="120" operator="equal">
+      <formula>"Påvirkningsindikator"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="cellIs" dxfId="83" priority="113" operator="equal">
+      <formula>"Påvirkning"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="114" operator="equal">
+      <formula>"Konsekvenser av påvirkningen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="115" operator="equal">
+      <formula>"Tilstandsindikator"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="116" operator="equal">
+      <formula>"Påvirkningsindikator"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69">
+    <cfRule type="cellIs" dxfId="79" priority="109" operator="equal">
+      <formula>"Påvirkning"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="110" operator="equal">
+      <formula>"Konsekvenser av påvirkningen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="111" operator="equal">
+      <formula>"Tilstandsindikator"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="112" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="105" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="106" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="107" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="108" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="101" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="102" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="103" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="104" operator="equal">
+      <formula>"Påvirkningsindikator"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
+    <cfRule type="cellIs" dxfId="67" priority="93" operator="equal">
+      <formula>"Påvirkning"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="94" operator="equal">
+      <formula>"Konsekvenser av påvirkningen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="95" operator="equal">
+      <formula>"Tilstandsindikator"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="96" operator="equal">
+      <formula>"Påvirkningsindikator"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73">
+    <cfRule type="cellIs" dxfId="63" priority="85" operator="equal">
+      <formula>"Påvirkning"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="86" operator="equal">
+      <formula>"Konsekvenser av påvirkningen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="87" operator="equal">
+      <formula>"Tilstandsindikator"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="88" operator="equal">
+      <formula>"Påvirkningsindikator"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74">
+    <cfRule type="cellIs" dxfId="59" priority="81" operator="equal">
+      <formula>"Påvirkning"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="82" operator="equal">
+      <formula>"Konsekvenser av påvirkningen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="83" operator="equal">
+      <formula>"Tilstandsindikator"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="84" operator="equal">
+      <formula>"Påvirkningsindikator"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75">
+    <cfRule type="cellIs" dxfId="55" priority="77" operator="equal">
+      <formula>"Påvirkning"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="78" operator="equal">
+      <formula>"Konsekvenser av påvirkningen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="79" operator="equal">
+      <formula>"Tilstandsindikator"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="80" operator="equal">
+      <formula>"Påvirkningsindikator"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76:D76">
+    <cfRule type="cellIs" dxfId="51" priority="73" operator="equal">
+      <formula>"Påvirkning"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="74" operator="equal">
+      <formula>"Konsekvenser av påvirkningen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="75" operator="equal">
+      <formula>"Tilstandsindikator"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="76" operator="equal">
+      <formula>"Påvirkningsindikator"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77:D77">
+    <cfRule type="cellIs" dxfId="47" priority="69" operator="equal">
+      <formula>"Påvirkning"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="70" operator="equal">
+      <formula>"Konsekvenser av påvirkningen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="71" operator="equal">
+      <formula>"Tilstandsindikator"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="72" operator="equal">
+      <formula>"Påvirkningsindikator"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:D78">
+    <cfRule type="cellIs" dxfId="43" priority="65" operator="equal">
+      <formula>"Påvirkning"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="66" operator="equal">
+      <formula>"Konsekvenser av påvirkningen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="67" operator="equal">
+      <formula>"Tilstandsindikator"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="68" operator="equal">
+      <formula>"Påvirkningsindikator"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79:D79">
+    <cfRule type="cellIs" dxfId="39" priority="61" operator="equal">
+      <formula>"Påvirkning"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="62" operator="equal">
+      <formula>"Konsekvenser av påvirkningen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="63" operator="equal">
+      <formula>"Tilstandsindikator"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="64" operator="equal">
+      <formula>"Påvirkningsindikator"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80:D80">
+    <cfRule type="cellIs" dxfId="35" priority="57" operator="equal">
+      <formula>"Påvirkning"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="58" operator="equal">
+      <formula>"Konsekvenser av påvirkningen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="59" operator="equal">
+      <formula>"Tilstandsindikator"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="60" operator="equal">
+      <formula>"Påvirkningsindikator"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81:D81">
+    <cfRule type="cellIs" dxfId="31" priority="53" operator="equal">
+      <formula>"Påvirkning"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="54" operator="equal">
+      <formula>"Konsekvenser av påvirkningen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="55" operator="equal">
+      <formula>"Tilstandsindikator"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="56" operator="equal">
+      <formula>"Påvirkningsindikator"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:D82">
+    <cfRule type="cellIs" dxfId="27" priority="49" operator="equal">
+      <formula>"Påvirkning"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="50" operator="equal">
+      <formula>"Konsekvenser av påvirkningen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="51" operator="equal">
+      <formula>"Tilstandsindikator"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="52" operator="equal">
+      <formula>"Påvirkningsindikator"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83:D83">
+    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
+      <formula>"Påvirkning"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
+      <formula>"Konsekvenser av påvirkningen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="31" operator="equal">
+      <formula>"Tilstandsindikator"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="32" operator="equal">
+      <formula>"Påvirkningsindikator"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84">
+    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
+      <formula>"Påvirkning"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
+      <formula>"Konsekvenser av påvirkningen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
+      <formula>"Tilstandsindikator"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
+      <formula>"Påvirkningsindikator"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85:D85">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+      <formula>"Påvirkning"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
+      <formula>"Konsekvenser av påvirkningen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
+      <formula>"Tilstandsindikator"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="24" operator="equal">
+      <formula>"Påvirkningsindikator"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C86:D86">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
+      <formula>"Påvirkning"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
+      <formula>"Konsekvenser av påvirkningen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
+      <formula>"Tilstandsindikator"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="20" operator="equal">
+      <formula>"Påvirkningsindikator"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87:D87">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+      <formula>"Påvirkning"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
+      <formula>"Konsekvenser av påvirkningen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
+      <formula>"Tilstandsindikator"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
+      <formula>"Påvirkningsindikator"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C88:D88">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+      <formula>"Påvirkning"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+      <formula>"Konsekvenser av påvirkningen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+      <formula>"Tilstandsindikator"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/indData.xlsx
+++ b/data/indData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Documents\Github\IBECA_NINA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308DDAE5-E41A-4C69-BFB7-AD030B23694F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC61D90-A998-4A08-A8CC-976C380DFB4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{FD9B3877-2BEE-49F1-96DB-153B721258FA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FD9B3877-2BEE-49F1-96DB-153B721258FA}"/>
   </bookViews>
   <sheets>
     <sheet name="tilstandsindikatorer" sheetId="1" r:id="rId1"/>
@@ -1865,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FB8531-B63A-426C-9960-07BA03ABBCBC}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,7 +2164,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1">
         <v>10</v>
@@ -2754,7 +2754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C601D3-9EDB-4E4F-80BC-043342852ACA}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>

--- a/data/indData.xlsx
+++ b/data/indData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Documents\Github\IBECA_NINA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC61D90-A998-4A08-A8CC-976C380DFB4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13097B6A-596E-4747-8928-A32317CB35E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FD9B3877-2BEE-49F1-96DB-153B721258FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{FD9B3877-2BEE-49F1-96DB-153B721258FA}"/>
   </bookViews>
   <sheets>
     <sheet name="tilstandsindikatorer" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="relasjoner" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">relasjoner!$A$1:$G$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">relasjoner!$A$1:$G$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="89">
   <si>
     <t>node</t>
   </si>
@@ -58,27 +58,12 @@
     <t>NI for fjell</t>
   </si>
   <si>
-    <t>Dahls R</t>
-  </si>
-  <si>
-    <t>Areal uten fremmede plantearter</t>
-  </si>
-  <si>
-    <t>Dekning av trær og busker</t>
-  </si>
-  <si>
     <t>NDVI</t>
   </si>
   <si>
     <t>Areal av isbreer</t>
   </si>
   <si>
-    <t>Snømengde</t>
-  </si>
-  <si>
-    <t>Snøsesong varighet</t>
-  </si>
-  <si>
     <t>Klima</t>
   </si>
   <si>
@@ -184,9 +169,6 @@
     <t>Endre Ellenberg L (lys) reflekterer endret konkurransefolhold mellom primærprodusentene</t>
   </si>
   <si>
-    <t>Dahls R el. ‘Heat requirement’ (a la Tyler et al. 2021) </t>
-  </si>
-  <si>
     <t>(avvik fra normal)</t>
   </si>
   <si>
@@ -280,12 +262,6 @@
     <t>tilstandsindikator</t>
   </si>
   <si>
-    <t>supplerende</t>
-  </si>
-  <si>
-    <t>Spurvefugler i fjellet</t>
-  </si>
-  <si>
     <t>Ellenberg N</t>
   </si>
   <si>
@@ -310,16 +286,28 @@
     <t>Fjellrype</t>
   </si>
   <si>
-    <t>Inngrepsfri natur</t>
-  </si>
-  <si>
-    <t>Fragmentering</t>
-  </si>
-  <si>
     <t>AR50</t>
   </si>
   <si>
     <t>Metereologisk Institutt</t>
+  </si>
+  <si>
+    <t>Konnektivitet</t>
+  </si>
+  <si>
+    <t>Vegetasjonens varmekrav</t>
+  </si>
+  <si>
+    <t>Areal uten tekniske inngrep</t>
+  </si>
+  <si>
+    <t>Snødybde</t>
+  </si>
+  <si>
+    <t>Snødekkets varighet</t>
+  </si>
+  <si>
+    <t>Fravær av fremmede arter</t>
   </si>
 </sst>
 </file>
@@ -503,7 +491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -539,11 +527,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -552,47 +538,7 @@
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="100">
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="96">
     <dxf>
       <font>
         <color theme="1"/>
@@ -1863,10 +1809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FB8531-B63A-426C-9960-07BA03ABBCBC}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1877,22 +1823,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1900,13 +1846,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E2" s="1">
         <v>12</v>
@@ -1918,13 +1864,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
@@ -1936,13 +1882,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1">
         <v>13</v>
@@ -1957,10 +1903,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1">
         <v>15</v>
@@ -1972,13 +1918,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1">
         <v>11</v>
@@ -1990,13 +1936,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
@@ -2011,10 +1957,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
@@ -2026,16 +1972,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" s="4"/>
     </row>
@@ -2044,37 +1990,39 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2082,56 +2030,52 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E13" s="1">
         <v>3</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E14" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F14" s="4"/>
     </row>
@@ -2140,16 +2084,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E15" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F15" s="4"/>
     </row>
@@ -2158,16 +2102,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E16" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F16" s="4"/>
     </row>
@@ -2176,143 +2120,89 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E17" s="1">
-        <v>5</v>
-      </c>
-      <c r="F17" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E18" s="1">
-        <v>7</v>
-      </c>
-      <c r="F18" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>35</v>
+      <c r="B19" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="1">
-        <v>8</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>48</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E19" s="22">
+        <v>16</v>
+      </c>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>35</v>
+      <c r="B20" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="1">
-        <v>8</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="24">
-        <v>2</v>
-      </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
-        <v>21</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="24">
-        <v>16</v>
-      </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
-        <v>22</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="24">
+        <v>72</v>
+      </c>
+      <c r="E20" s="22">
         <v>1</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F20" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C20">
-    <cfRule type="cellIs" dxfId="99" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:C18">
+    <cfRule type="cellIs" dxfId="95" priority="1" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="2" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="3" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="4" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2326,7 +2216,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,65 +2228,65 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -2409,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4CED44-1F6C-448B-8612-4FEEFEB3FFE5}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2421,19 +2311,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2441,13 +2331,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -2456,13 +2346,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -2471,13 +2361,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -2486,13 +2376,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -2501,13 +2391,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -2516,13 +2406,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -2531,13 +2421,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -2566,16 +2456,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2583,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -2593,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -2603,7 +2493,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -2613,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2623,7 +2513,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2633,7 +2523,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2643,10 +2533,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -2655,7 +2545,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -2665,7 +2555,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2675,7 +2565,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2685,7 +2575,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2695,7 +2585,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2705,11 +2595,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2717,11 +2607,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2729,7 +2619,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2739,7 +2629,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -2752,10 +2642,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C601D3-9EDB-4E4F-80BC-043342852ACA}">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2769,25 +2659,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2795,15 +2685,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G2" s="5"/>
     </row>
@@ -2812,15 +2702,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -2829,15 +2719,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -2846,7 +2736,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
@@ -2854,7 +2744,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -2863,15 +2753,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G6" s="5"/>
     </row>
@@ -2880,15 +2770,15 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G7" s="5"/>
     </row>
@@ -2897,7 +2787,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -2905,7 +2795,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G8" s="5"/>
     </row>
@@ -2914,7 +2804,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -2922,7 +2812,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G9" s="5"/>
     </row>
@@ -2931,7 +2821,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -2939,7 +2829,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G10" s="5"/>
     </row>
@@ -2948,15 +2838,15 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G11" s="5"/>
     </row>
@@ -2965,15 +2855,15 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G12" s="5"/>
     </row>
@@ -2982,15 +2872,15 @@
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G13" s="5"/>
     </row>
@@ -2999,15 +2889,15 @@
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G14" s="5"/>
     </row>
@@ -3016,15 +2906,15 @@
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G15" s="5"/>
     </row>
@@ -3033,15 +2923,15 @@
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G16" s="5"/>
     </row>
@@ -3050,15 +2940,15 @@
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -3067,15 +2957,15 @@
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -3084,15 +2974,15 @@
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -3100,16 +2990,16 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>35</v>
+      <c r="B20" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="6" t="s">
-        <v>56</v>
+      <c r="F20" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -3118,15 +3008,15 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="5"/>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -3135,15 +3025,15 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="5"/>
       <c r="F22" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -3152,15 +3042,15 @@
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="5"/>
       <c r="F23" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -3172,12 +3062,12 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="5"/>
       <c r="F24" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -3186,15 +3076,15 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="5"/>
       <c r="F25" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -3203,15 +3093,15 @@
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="5"/>
       <c r="F26" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -3220,15 +3110,15 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="5"/>
       <c r="F27" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -3237,15 +3127,15 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="5"/>
       <c r="F28" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -3257,12 +3147,12 @@
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="5"/>
       <c r="F29" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G29" s="5"/>
     </row>
@@ -3271,15 +3161,15 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="5"/>
       <c r="F30" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G30" s="5"/>
     </row>
@@ -3288,15 +3178,15 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="5"/>
       <c r="F31" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G31" s="5"/>
     </row>
@@ -3305,15 +3195,15 @@
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="5"/>
       <c r="F32" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G32" s="5"/>
     </row>
@@ -3322,15 +3212,15 @@
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="5"/>
       <c r="F33" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G33" s="5"/>
     </row>
@@ -3339,15 +3229,15 @@
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="5"/>
       <c r="F34" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G34" s="5"/>
     </row>
@@ -3356,15 +3246,15 @@
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="5"/>
       <c r="F35" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G35" s="5"/>
     </row>
@@ -3372,16 +3262,16 @@
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>21</v>
+      <c r="B36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="5"/>
       <c r="F36" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G36" s="5"/>
     </row>
@@ -3390,15 +3280,15 @@
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="5"/>
       <c r="F37" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G37" s="5"/>
     </row>
@@ -3406,16 +3296,16 @@
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="15" t="s">
-        <v>10</v>
+      <c r="B38" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="7" t="s">
-        <v>54</v>
+      <c r="F38" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="G38" s="5"/>
     </row>
@@ -3424,15 +3314,15 @@
         <v>38</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="5"/>
       <c r="F39" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G39" s="5"/>
     </row>
@@ -3441,15 +3331,15 @@
         <v>39</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="5"/>
       <c r="F40" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G40" s="5"/>
     </row>
@@ -3458,15 +3348,15 @@
         <v>40</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="5"/>
       <c r="F41" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G41" s="5"/>
     </row>
@@ -3475,15 +3365,15 @@
         <v>41</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="5"/>
       <c r="F42" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G42" s="5"/>
     </row>
@@ -3492,15 +3382,15 @@
         <v>42</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="5"/>
       <c r="F43" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G43" s="5"/>
     </row>
@@ -3509,15 +3399,15 @@
         <v>43</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="5"/>
       <c r="F44" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G44" s="5"/>
     </row>
@@ -3526,15 +3416,15 @@
         <v>44</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="5"/>
       <c r="F45" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G45" s="5"/>
     </row>
@@ -3543,15 +3433,15 @@
         <v>45</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="5"/>
       <c r="F46" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G46" s="5"/>
     </row>
@@ -3560,15 +3450,15 @@
         <v>46</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="5"/>
       <c r="F47" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G47" s="5"/>
     </row>
@@ -3577,15 +3467,15 @@
         <v>47</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="5"/>
       <c r="F48" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G48" s="5"/>
     </row>
@@ -3594,15 +3484,15 @@
         <v>48</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="5"/>
       <c r="F49" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G49" s="5"/>
     </row>
@@ -3611,15 +3501,15 @@
         <v>49</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="5"/>
       <c r="F50" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G50" s="5"/>
     </row>
@@ -3628,15 +3518,15 @@
         <v>50</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="5"/>
       <c r="F51" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G51" s="5"/>
     </row>
@@ -3645,15 +3535,15 @@
         <v>51</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="5"/>
       <c r="F52" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G52" s="5"/>
     </row>
@@ -3662,15 +3552,15 @@
         <v>52</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="5"/>
       <c r="F53" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G53" s="5"/>
     </row>
@@ -3679,15 +3569,15 @@
         <v>53</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="5"/>
       <c r="F54" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G54" s="5"/>
     </row>
@@ -3696,15 +3586,15 @@
         <v>54</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="5"/>
       <c r="F55" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G55" s="5"/>
     </row>
@@ -3713,15 +3603,15 @@
         <v>55</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="5"/>
       <c r="F56" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G56" s="5"/>
     </row>
@@ -3730,15 +3620,15 @@
         <v>56</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="5"/>
       <c r="F57" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G57" s="5"/>
     </row>
@@ -3747,15 +3637,15 @@
         <v>57</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="5"/>
       <c r="F58" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G58" s="5"/>
     </row>
@@ -3764,15 +3654,15 @@
         <v>58</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="5"/>
       <c r="F59" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G59" s="5"/>
     </row>
@@ -3781,15 +3671,15 @@
         <v>59</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="5"/>
       <c r="F60" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G60" s="5"/>
     </row>
@@ -3798,15 +3688,15 @@
         <v>60</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="5"/>
       <c r="F61" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G61" s="5"/>
     </row>
@@ -3815,15 +3705,15 @@
         <v>61</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="5"/>
       <c r="F62" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G62" s="5"/>
     </row>
@@ -3832,15 +3722,15 @@
         <v>62</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="5"/>
       <c r="F63" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G63" s="5"/>
     </row>
@@ -3849,7 +3739,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>4</v>
@@ -3857,7 +3747,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="5"/>
       <c r="F64" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G64" s="5"/>
     </row>
@@ -3866,15 +3756,15 @@
         <v>64</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="5"/>
       <c r="F65" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G65" s="5"/>
     </row>
@@ -3883,15 +3773,15 @@
         <v>65</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="5"/>
       <c r="F66" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G66" s="5"/>
     </row>
@@ -3900,15 +3790,15 @@
         <v>66</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="5"/>
       <c r="F67" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G67" s="5"/>
     </row>
@@ -3917,15 +3807,15 @@
         <v>67</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="5"/>
       <c r="F68" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G68" s="5"/>
     </row>
@@ -3934,15 +3824,15 @@
         <v>68</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="5"/>
       <c r="F69" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G69" s="5"/>
     </row>
@@ -3951,15 +3841,15 @@
         <v>69</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="5"/>
       <c r="F70" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G70" s="5"/>
     </row>
@@ -3967,16 +3857,16 @@
       <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="16" t="s">
-        <v>16</v>
+      <c r="B71" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="5"/>
-      <c r="F71" s="8" t="s">
-        <v>57</v>
+      <c r="F71" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="G71" s="5"/>
     </row>
@@ -3984,16 +3874,16 @@
       <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" s="16" t="s">
-        <v>16</v>
+      <c r="B72" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="8" t="s">
-        <v>57</v>
+      <c r="F72" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="G72" s="5"/>
     </row>
@@ -4001,16 +3891,16 @@
       <c r="A73" s="5">
         <v>72</v>
       </c>
-      <c r="B73" s="16" t="s">
-        <v>12</v>
+      <c r="B73" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="5"/>
-      <c r="F73" s="8" t="s">
-        <v>57</v>
+      <c r="F73" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="G73" s="5"/>
     </row>
@@ -4018,16 +3908,16 @@
       <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" s="16" t="s">
-        <v>12</v>
+      <c r="B74" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="5"/>
-      <c r="F74" s="8" t="s">
-        <v>57</v>
+      <c r="F74" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="G74" s="5"/>
     </row>
@@ -4035,16 +3925,16 @@
       <c r="A75" s="5">
         <v>74</v>
       </c>
-      <c r="B75" s="16" t="s">
-        <v>12</v>
+      <c r="B75" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="5"/>
-      <c r="F75" s="8" t="s">
-        <v>57</v>
+      <c r="F75" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="G75" s="5"/>
     </row>
@@ -4053,15 +3943,15 @@
         <v>75</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="5"/>
       <c r="F76" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G76" s="5"/>
     </row>
@@ -4070,15 +3960,15 @@
         <v>76</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="5"/>
       <c r="F77" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G77" s="5"/>
     </row>
@@ -4086,16 +3976,16 @@
       <c r="A78" s="5">
         <v>77</v>
       </c>
-      <c r="B78" s="15" t="s">
-        <v>1</v>
+      <c r="B78" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="5"/>
-      <c r="F78" s="7" t="s">
-        <v>54</v>
+      <c r="F78" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="G78" s="5"/>
     </row>
@@ -4104,15 +3994,15 @@
         <v>78</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="5"/>
       <c r="F79" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G79" s="5"/>
     </row>
@@ -4121,15 +4011,15 @@
         <v>79</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="5"/>
       <c r="F80" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G80" s="5"/>
     </row>
@@ -4137,8 +4027,8 @@
       <c r="A81" s="5">
         <v>80</v>
       </c>
-      <c r="B81" s="15" t="s">
-        <v>83</v>
+      <c r="B81" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>18</v>
@@ -4146,7 +4036,7 @@
       <c r="D81" s="1"/>
       <c r="E81" s="5"/>
       <c r="F81" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G81" s="5"/>
     </row>
@@ -4155,7 +4045,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>18</v>
@@ -4163,7 +4053,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="5"/>
       <c r="F82" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G82" s="5"/>
     </row>
@@ -4171,16 +4061,16 @@
       <c r="A83" s="5">
         <v>82</v>
       </c>
-      <c r="B83" s="15" t="s">
-        <v>90</v>
+      <c r="B83" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="5"/>
-      <c r="F83" s="7" t="s">
-        <v>54</v>
+      <c r="F83" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="G83" s="5"/>
     </row>
@@ -4189,15 +4079,15 @@
         <v>83</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="5"/>
       <c r="F84" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G84" s="5"/>
     </row>
@@ -4205,405 +4095,340 @@
       <c r="A85" s="5">
         <v>84</v>
       </c>
-      <c r="B85" s="15" t="s">
-        <v>81</v>
+      <c r="B85" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="5"/>
-      <c r="F85" s="7" t="s">
-        <v>54</v>
+      <c r="F85" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="G85" s="5"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
-        <v>85</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G86" s="5"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
-        <v>86</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D87" s="1"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G87" s="5"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
-        <v>87</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D88" s="1"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G88" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G88" xr:uid="{03A63584-9279-48FC-B801-EBDFD85054A5}"/>
-  <conditionalFormatting sqref="B58:B66 B2:B20 C21:D38">
-    <cfRule type="cellIs" dxfId="95" priority="133" operator="equal">
+  <autoFilter ref="A1:G85" xr:uid="{03A63584-9279-48FC-B801-EBDFD85054A5}"/>
+  <conditionalFormatting sqref="B2:B19 B38:B63 C20:D37">
+    <cfRule type="cellIs" dxfId="91" priority="145" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="146" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="147" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="148" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:B57">
-    <cfRule type="cellIs" dxfId="91" priority="125" operator="equal">
+  <conditionalFormatting sqref="B64">
+    <cfRule type="cellIs" dxfId="87" priority="129" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="130" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="131" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="132" operator="equal">
+      <formula>"Påvirkningsindikator"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="cellIs" dxfId="83" priority="121" operator="equal">
+      <formula>"Påvirkning"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="122" operator="equal">
+      <formula>"Konsekvenser av påvirkningen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="123" operator="equal">
+      <formula>"Tilstandsindikator"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="124" operator="equal">
+      <formula>"Påvirkningsindikator"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="cellIs" dxfId="79" priority="113" operator="equal">
+      <formula>"Påvirkning"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="114" operator="equal">
+      <formula>"Konsekvenser av påvirkningen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="115" operator="equal">
+      <formula>"Tilstandsindikator"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="116" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="87" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="105" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="106" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="107" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="108" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="cellIs" dxfId="83" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="97" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="98" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="99" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="100" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="cellIs" dxfId="79" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="93" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="94" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="95" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="96" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="cellIs" dxfId="75" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="89" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="90" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="91" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="92" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
-    <cfRule type="cellIs" dxfId="71" priority="101" operator="equal">
+  <conditionalFormatting sqref="C71:D71">
+    <cfRule type="cellIs" dxfId="59" priority="85" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="86" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="87" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="88" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
-    <cfRule type="cellIs" dxfId="67" priority="93" operator="equal">
+  <conditionalFormatting sqref="C72:D72">
+    <cfRule type="cellIs" dxfId="55" priority="81" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="82" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="83" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="84" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="cellIs" dxfId="63" priority="85" operator="equal">
+  <conditionalFormatting sqref="C73:D73">
+    <cfRule type="cellIs" dxfId="51" priority="77" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="78" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="79" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="80" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B74">
-    <cfRule type="cellIs" dxfId="59" priority="81" operator="equal">
+  <conditionalFormatting sqref="C74:D74">
+    <cfRule type="cellIs" dxfId="47" priority="73" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="74" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="75" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="76" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B75">
-    <cfRule type="cellIs" dxfId="55" priority="77" operator="equal">
+  <conditionalFormatting sqref="C75:D75">
+    <cfRule type="cellIs" dxfId="43" priority="65" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="66" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="67" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="68" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76:D76">
-    <cfRule type="cellIs" dxfId="51" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="61" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="62" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="63" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="64" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:D77">
-    <cfRule type="cellIs" dxfId="47" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="41" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="43" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="44" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C78:D78">
-    <cfRule type="cellIs" dxfId="43" priority="65" operator="equal">
+  <conditionalFormatting sqref="B78">
+    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="39" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="40" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79:D79">
-    <cfRule type="cellIs" dxfId="39" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:D80">
-    <cfRule type="cellIs" dxfId="35" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="31" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="32" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:D81">
-    <cfRule type="cellIs" dxfId="31" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:D82">
-    <cfRule type="cellIs" dxfId="27" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="24" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C83:D83">
-    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
+  <conditionalFormatting sqref="B83">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C85:D85">
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+  <conditionalFormatting sqref="B85">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Påvirkning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Konsekvenser av påvirkningen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Tilstandsindikator"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="24" operator="equal">
-      <formula>"Påvirkningsindikator"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C86:D86">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
-      <formula>"Påvirkning"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
-      <formula>"Konsekvenser av påvirkningen"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
-      <formula>"Tilstandsindikator"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="20" operator="equal">
-      <formula>"Påvirkningsindikator"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87:D87">
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
-      <formula>"Påvirkning"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
-      <formula>"Konsekvenser av påvirkningen"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
-      <formula>"Tilstandsindikator"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
-      <formula>"Påvirkningsindikator"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C88:D88">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
-      <formula>"Påvirkning"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
-      <formula>"Konsekvenser av påvirkningen"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
-      <formula>"Tilstandsindikator"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Påvirkningsindikator"</formula>
     </cfRule>
   </conditionalFormatting>
